--- a/docs/exam comm data.xlsx
+++ b/docs/exam comm data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\1. AZLINA_2024\1. PASCASISWAZAH\SURAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\millions\xampp8.1.25\htdocs\projects\gitf-kpweb\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE9E8CD-6D61-4019-BF50-500A4FAFD4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC34B05A-DB96-41CC-A387-34C3724013BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_SURAT_PELANTIKAN" sheetId="1" r:id="rId1"/>
@@ -4080,9 +4080,9 @@
   </sheetPr>
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE85" sqref="AE85"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W82" sqref="W82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
